--- a/OpenRA-OW2023-02-25/mods/ow/rules/medi-New/Medi Rework.xlsx
+++ b/OpenRA-OW2023-02-25/mods/ow/rules/medi-New/Medi Rework.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Git OpenRA\OpenRA-OW\OpenRA-OW2023-02-25\mods\ow\rules\medi-New\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD2D90BA-6DC6-4714-965E-511D6FDEAF7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0098C4F-8586-48DF-909C-7B12E293487D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="671" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Infantry" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1616" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1720" uniqueCount="344">
   <si>
     <t>Name</t>
   </si>
@@ -1011,9 +1011,6 @@
     <t>Needs</t>
   </si>
   <si>
-    <t>Partial</t>
-  </si>
-  <si>
     <t>Redo</t>
   </si>
   <si>
@@ -1030,6 +1027,39 @@
   </si>
   <si>
     <t>Need to Isolate these and clear leftover files</t>
+  </si>
+  <si>
+    <t>xx</t>
+  </si>
+  <si>
+    <t>MCVM Building</t>
+  </si>
+  <si>
+    <t>Scout Tower</t>
+  </si>
+  <si>
+    <t>Smite Power</t>
+  </si>
+  <si>
+    <t>Death Knight</t>
+  </si>
+  <si>
+    <t>bowman</t>
+  </si>
+  <si>
+    <t>manowar</t>
+  </si>
+  <si>
+    <t>hwachaboat</t>
+  </si>
+  <si>
+    <t>arcaneboat</t>
+  </si>
+  <si>
+    <t>New Legion</t>
+  </si>
+  <si>
+    <t>Medi Footman</t>
   </si>
 </sst>
 </file>
@@ -1167,7 +1197,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1205,28 +1235,20 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="9">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1293,6 +1315,23 @@
         <scheme val="minor"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1307,13 +1346,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4207FD3A-CCE4-42A4-B24C-D35F75804578}" name="Table3" displayName="Table3" ref="A1:I113" totalsRowShown="0">
-  <autoFilter ref="A1:I113" xr:uid="{4207FD3A-CCE4-42A4-B24C-D35F75804578}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I113">
-    <sortCondition ref="B1:B113"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4207FD3A-CCE4-42A4-B24C-D35F75804578}" name="Table3" displayName="Table3" ref="A1:J117" totalsRowShown="0">
+  <autoFilter ref="A1:J117" xr:uid="{4207FD3A-CCE4-42A4-B24C-D35F75804578}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:J117">
+    <sortCondition ref="C1:C117"/>
   </sortState>
-  <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{BB0D661A-447A-44F1-A288-1AFAD201EBDF}" name="Name" dataDxfId="8"/>
+  <tableColumns count="10">
+    <tableColumn id="10" xr3:uid="{007A6D9F-8A72-43A1-BA36-2659BB178CAC}" name="Check" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{BB0D661A-447A-44F1-A288-1AFAD201EBDF}" name="Name" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{1CCE4C4E-A198-4E60-9871-4F6BDC5A1E5A}" name="Type"/>
     <tableColumn id="3" xr3:uid="{D9F0D860-B420-41E0-98EB-72AF3F5D12B7}" name="Icon"/>
     <tableColumn id="4" xr3:uid="{AFFD3195-5DDD-45D2-8952-31B94B1A3F17}" name="Effects"/>
@@ -17237,60 +17277,66 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BD16AB4-56CF-4535-B040-447812BF3E67}">
-  <dimension ref="A1:I113"/>
+  <dimension ref="A1:J117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A96" sqref="A96"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I61" sqref="I61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="13.85546875" customWidth="1"/>
-    <col min="8" max="8" width="41.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.85546875" customWidth="1"/>
+    <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="41.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>320</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>321</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>322</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>323</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>324</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="I1" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="23" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="J1" s="23" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="24"/>
+      <c r="B2" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>326</v>
       </c>
       <c r="D2" t="s">
         <v>326</v>
@@ -17304,17 +17350,20 @@
       <c r="G2" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="H2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
+        <v>333</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
-        <v>325</v>
-      </c>
       <c r="D3" t="s">
         <v>325</v>
       </c>
@@ -17327,20 +17376,23 @@
       <c r="G3" t="s">
         <v>325</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="H3" t="s">
+        <v>325</v>
+      </c>
+      <c r="I3" s="23" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
-        <v>325</v>
-      </c>
       <c r="D4" t="s">
         <v>325</v>
       </c>
@@ -17353,117 +17405,136 @@
       <c r="G4" t="s">
         <v>325</v>
       </c>
-      <c r="H4" s="23" t="s">
+      <c r="H4" t="s">
+        <v>325</v>
+      </c>
+      <c r="I4" s="23" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="24" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
-        <v>325</v>
-      </c>
       <c r="D5" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E5" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F5" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="G5" t="s">
         <v>325</v>
       </c>
-      <c r="H5" s="23" t="s">
+      <c r="H5" t="s">
+        <v>325</v>
+      </c>
+      <c r="I5" s="23" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="24" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" t="s">
-        <v>325</v>
-      </c>
       <c r="D6" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E6" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F6" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="G6" t="s">
         <v>325</v>
       </c>
-      <c r="H6" s="23" t="s">
+      <c r="H6" t="s">
+        <v>325</v>
+      </c>
+      <c r="I6" s="23" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>289</v>
       </c>
-      <c r="C7" t="s">
-        <v>326</v>
-      </c>
       <c r="D7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G7" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="H7" t="s">
+        <v>325</v>
+      </c>
+      <c r="I7" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="24" t="s">
+        <v>333</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>289</v>
       </c>
-      <c r="C8" t="s">
-        <v>326</v>
-      </c>
       <c r="D8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E8" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F8" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G8" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="H8" t="s">
+        <v>325</v>
+      </c>
+      <c r="I8" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="24"/>
+      <c r="B9" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>289</v>
-      </c>
-      <c r="C9" t="s">
-        <v>326</v>
       </c>
       <c r="D9" t="s">
         <v>326</v>
@@ -17477,39 +17548,45 @@
       <c r="G9" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="H9" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
+        <v>333</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>289</v>
       </c>
-      <c r="C10" t="s">
-        <v>326</v>
-      </c>
       <c r="D10" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E10" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F10" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G10" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
+        <v>325</v>
+      </c>
+      <c r="H10" t="s">
+        <v>325</v>
+      </c>
+      <c r="I10" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>289</v>
-      </c>
-      <c r="C11" t="s">
-        <v>326</v>
       </c>
       <c r="D11" t="s">
         <v>326</v>
@@ -17523,45 +17600,49 @@
       <c r="G11" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="H11" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="24" t="s">
+        <v>333</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>289</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
+        <v>325</v>
+      </c>
+      <c r="E12" t="s">
+        <v>325</v>
+      </c>
+      <c r="F12" t="s">
+        <v>325</v>
+      </c>
+      <c r="G12" t="s">
+        <v>325</v>
+      </c>
+      <c r="H12" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="27"/>
+      <c r="B13" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C13" t="s">
+        <v>160</v>
+      </c>
+      <c r="D13" t="s">
         <v>326</v>
       </c>
-      <c r="D12" t="s">
-        <v>326</v>
-      </c>
-      <c r="E12" t="s">
-        <v>326</v>
-      </c>
-      <c r="F12" t="s">
-        <v>326</v>
-      </c>
-      <c r="G12" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="27" t="s">
-        <v>146</v>
-      </c>
-      <c r="B13" t="s">
-        <v>160</v>
-      </c>
-      <c r="C13" t="s">
-        <v>326</v>
-      </c>
-      <c r="D13" t="s">
-        <v>329</v>
-      </c>
       <c r="E13" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="F13" t="s">
         <v>326</v>
@@ -17569,16 +17650,17 @@
       <c r="G13" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="H13" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="26"/>
+      <c r="B14" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>160</v>
-      </c>
-      <c r="C14" t="s">
-        <v>326</v>
       </c>
       <c r="D14" t="s">
         <v>326</v>
@@ -17592,19 +17674,22 @@
       <c r="G14" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="H14" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>333</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>160</v>
       </c>
-      <c r="C15" t="s">
-        <v>325</v>
-      </c>
       <c r="D15" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E15" t="s">
         <v>325</v>
@@ -17615,22 +17700,25 @@
       <c r="G15" t="s">
         <v>325</v>
       </c>
-      <c r="H15" s="23" t="s">
+      <c r="H15" t="s">
+        <v>325</v>
+      </c>
+      <c r="I15" s="23" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+      <c r="B16" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>160</v>
       </c>
-      <c r="C16" t="s">
-        <v>325</v>
-      </c>
       <c r="D16" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E16" t="s">
         <v>325</v>
@@ -17641,22 +17729,25 @@
       <c r="G16" t="s">
         <v>325</v>
       </c>
-      <c r="H16" s="23" t="s">
+      <c r="H16" t="s">
+        <v>325</v>
+      </c>
+      <c r="I16" s="23" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+      <c r="B17" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>160</v>
       </c>
-      <c r="C17" t="s">
-        <v>325</v>
-      </c>
       <c r="D17" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E17" t="s">
         <v>325</v>
@@ -17667,22 +17758,25 @@
       <c r="G17" t="s">
         <v>325</v>
       </c>
-      <c r="H17" s="23" t="s">
+      <c r="H17" t="s">
+        <v>325</v>
+      </c>
+      <c r="I17" s="23" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+      <c r="B18" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>160</v>
       </c>
-      <c r="C18" t="s">
-        <v>325</v>
-      </c>
       <c r="D18" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E18" t="s">
         <v>325</v>
@@ -17693,20 +17787,23 @@
       <c r="G18" t="s">
         <v>325</v>
       </c>
-      <c r="H18" s="23" t="s">
+      <c r="H18" t="s">
+        <v>325</v>
+      </c>
+      <c r="I18" s="23" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+      <c r="B19" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>160</v>
       </c>
-      <c r="C19" t="s">
-        <v>325</v>
-      </c>
       <c r="D19" t="s">
         <v>325</v>
       </c>
@@ -17719,20 +17816,23 @@
       <c r="G19" t="s">
         <v>325</v>
       </c>
-      <c r="H19" s="23" t="s">
+      <c r="H19" t="s">
+        <v>325</v>
+      </c>
+      <c r="I19" s="23" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+      <c r="B20" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>160</v>
       </c>
-      <c r="C20" t="s">
-        <v>325</v>
-      </c>
       <c r="D20" t="s">
         <v>325</v>
       </c>
@@ -17745,22 +17845,25 @@
       <c r="G20" t="s">
         <v>325</v>
       </c>
-      <c r="H20" s="23" t="s">
+      <c r="H20" t="s">
+        <v>325</v>
+      </c>
+      <c r="I20" s="23" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+      <c r="B21" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>160</v>
       </c>
-      <c r="C21" t="s">
-        <v>325</v>
-      </c>
       <c r="D21" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="E21" t="s">
         <v>325</v>
@@ -17771,22 +17874,25 @@
       <c r="G21" t="s">
         <v>325</v>
       </c>
-      <c r="H21" s="23" t="s">
+      <c r="H21" t="s">
+        <v>325</v>
+      </c>
+      <c r="I21" s="23" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+      <c r="B22" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>160</v>
       </c>
-      <c r="C22" t="s">
-        <v>325</v>
-      </c>
       <c r="D22" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="E22" t="s">
         <v>325</v>
@@ -17797,673 +17903,730 @@
       <c r="G22" t="s">
         <v>325</v>
       </c>
-      <c r="H22" s="23" t="s">
+      <c r="H22" t="s">
+        <v>325</v>
+      </c>
+      <c r="I22" s="23" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+      <c r="B23" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>160</v>
       </c>
-      <c r="C23" t="s">
-        <v>325</v>
-      </c>
       <c r="D23" t="s">
+        <v>325</v>
+      </c>
+      <c r="E23" t="s">
+        <v>325</v>
+      </c>
+      <c r="F23" t="s">
+        <v>325</v>
+      </c>
+      <c r="G23" t="s">
+        <v>325</v>
+      </c>
+      <c r="H23" t="s">
+        <v>325</v>
+      </c>
+      <c r="I23" s="23" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>333</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C24" t="s">
+        <v>160</v>
+      </c>
+      <c r="D24" t="s">
+        <v>325</v>
+      </c>
+      <c r="E24" t="s">
+        <v>325</v>
+      </c>
+      <c r="F24" t="s">
+        <v>325</v>
+      </c>
+      <c r="G24" t="s">
+        <v>325</v>
+      </c>
+      <c r="H24" t="s">
+        <v>325</v>
+      </c>
+      <c r="I24" s="23" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>333</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C25" t="s">
+        <v>160</v>
+      </c>
+      <c r="D25" t="s">
+        <v>325</v>
+      </c>
+      <c r="E25" t="s">
+        <v>325</v>
+      </c>
+      <c r="F25" t="s">
+        <v>325</v>
+      </c>
+      <c r="G25" t="s">
+        <v>325</v>
+      </c>
+      <c r="H25" t="s">
+        <v>325</v>
+      </c>
+      <c r="I25" s="23" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>333</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C26" t="s">
+        <v>160</v>
+      </c>
+      <c r="D26" t="s">
+        <v>325</v>
+      </c>
+      <c r="E26" t="s">
+        <v>325</v>
+      </c>
+      <c r="F26" t="s">
+        <v>325</v>
+      </c>
+      <c r="G26" t="s">
+        <v>325</v>
+      </c>
+      <c r="H26" t="s">
+        <v>325</v>
+      </c>
+      <c r="I26" s="23" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>333</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C27" t="s">
+        <v>160</v>
+      </c>
+      <c r="D27" t="s">
+        <v>325</v>
+      </c>
+      <c r="E27" t="s">
+        <v>325</v>
+      </c>
+      <c r="F27" t="s">
+        <v>325</v>
+      </c>
+      <c r="G27" t="s">
+        <v>325</v>
+      </c>
+      <c r="H27" t="s">
+        <v>325</v>
+      </c>
+      <c r="I27" s="23" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>333</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C28" t="s">
+        <v>160</v>
+      </c>
+      <c r="D28" t="s">
+        <v>325</v>
+      </c>
+      <c r="E28" t="s">
+        <v>325</v>
+      </c>
+      <c r="F28" t="s">
+        <v>325</v>
+      </c>
+      <c r="G28" t="s">
+        <v>325</v>
+      </c>
+      <c r="H28" t="s">
+        <v>325</v>
+      </c>
+      <c r="I28" s="23" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>333</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C29" t="s">
+        <v>160</v>
+      </c>
+      <c r="D29" t="s">
+        <v>325</v>
+      </c>
+      <c r="E29" t="s">
+        <v>325</v>
+      </c>
+      <c r="F29" t="s">
+        <v>325</v>
+      </c>
+      <c r="G29" t="s">
+        <v>325</v>
+      </c>
+      <c r="H29" t="s">
+        <v>325</v>
+      </c>
+      <c r="I29" s="23" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>333</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C30" t="s">
+        <v>160</v>
+      </c>
+      <c r="D30" t="s">
+        <v>325</v>
+      </c>
+      <c r="E30" t="s">
+        <v>325</v>
+      </c>
+      <c r="F30" t="s">
+        <v>325</v>
+      </c>
+      <c r="G30" t="s">
+        <v>325</v>
+      </c>
+      <c r="H30" t="s">
+        <v>325</v>
+      </c>
+      <c r="I30" s="23" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>333</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C31" t="s">
+        <v>160</v>
+      </c>
+      <c r="D31" t="s">
+        <v>325</v>
+      </c>
+      <c r="E31" t="s">
+        <v>325</v>
+      </c>
+      <c r="F31" t="s">
+        <v>325</v>
+      </c>
+      <c r="G31" t="s">
+        <v>325</v>
+      </c>
+      <c r="H31" t="s">
+        <v>325</v>
+      </c>
+      <c r="I31" s="23" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>333</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C32" t="s">
+        <v>160</v>
+      </c>
+      <c r="D32" t="s">
+        <v>325</v>
+      </c>
+      <c r="E32" t="s">
+        <v>325</v>
+      </c>
+      <c r="F32" t="s">
+        <v>325</v>
+      </c>
+      <c r="G32" t="s">
+        <v>325</v>
+      </c>
+      <c r="H32" t="s">
+        <v>325</v>
+      </c>
+      <c r="I32" s="23" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>333</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C33" t="s">
+        <v>160</v>
+      </c>
+      <c r="D33" t="s">
+        <v>325</v>
+      </c>
+      <c r="E33" t="s">
+        <v>325</v>
+      </c>
+      <c r="F33" t="s">
+        <v>325</v>
+      </c>
+      <c r="G33" t="s">
+        <v>325</v>
+      </c>
+      <c r="H33" t="s">
+        <v>325</v>
+      </c>
+      <c r="I33" s="23" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>333</v>
+      </c>
+      <c r="B34" s="26" t="s">
+        <v>334</v>
+      </c>
+      <c r="C34" t="s">
+        <v>160</v>
+      </c>
+      <c r="D34" t="s">
+        <v>325</v>
+      </c>
+      <c r="E34" t="s">
+        <v>325</v>
+      </c>
+      <c r="F34" t="s">
+        <v>325</v>
+      </c>
+      <c r="G34" t="s">
+        <v>325</v>
+      </c>
+      <c r="H34" t="s">
+        <v>325</v>
+      </c>
+      <c r="I34" s="23"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>333</v>
+      </c>
+      <c r="B35" s="26" t="s">
+        <v>335</v>
+      </c>
+      <c r="C35" t="s">
+        <v>160</v>
+      </c>
+      <c r="D35" t="s">
+        <v>325</v>
+      </c>
+      <c r="E35" t="s">
+        <v>325</v>
+      </c>
+      <c r="F35" t="s">
+        <v>325</v>
+      </c>
+      <c r="G35" t="s">
+        <v>325</v>
+      </c>
+      <c r="H35" t="s">
+        <v>325</v>
+      </c>
+      <c r="I35" s="23"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="26" t="s">
+        <v>333</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C36" t="s">
+        <v>160</v>
+      </c>
+      <c r="D36" t="s">
+        <v>325</v>
+      </c>
+      <c r="E36" t="s">
+        <v>325</v>
+      </c>
+      <c r="F36" t="s">
+        <v>325</v>
+      </c>
+      <c r="G36" t="s">
+        <v>325</v>
+      </c>
+      <c r="H36" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="26"/>
+      <c r="B37" s="25" t="s">
+        <v>290</v>
+      </c>
+      <c r="C37" t="s">
+        <v>309</v>
+      </c>
+      <c r="D37" t="s">
+        <v>328</v>
+      </c>
+      <c r="E37" t="s">
         <v>326</v>
       </c>
-      <c r="E23" t="s">
-        <v>325</v>
-      </c>
-      <c r="F23" t="s">
-        <v>325</v>
-      </c>
-      <c r="G23" t="s">
-        <v>325</v>
-      </c>
-      <c r="H23" s="23" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="B24" t="s">
-        <v>160</v>
-      </c>
-      <c r="C24" t="s">
-        <v>325</v>
-      </c>
-      <c r="D24" t="s">
-        <v>329</v>
-      </c>
-      <c r="E24" t="s">
-        <v>325</v>
-      </c>
-      <c r="F24" t="s">
-        <v>325</v>
-      </c>
-      <c r="G24" t="s">
-        <v>325</v>
-      </c>
-      <c r="H24" s="23" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="B25" t="s">
-        <v>160</v>
-      </c>
-      <c r="C25" t="s">
-        <v>325</v>
-      </c>
-      <c r="D25" t="s">
-        <v>329</v>
-      </c>
-      <c r="E25" t="s">
-        <v>325</v>
-      </c>
-      <c r="F25" t="s">
-        <v>325</v>
-      </c>
-      <c r="G25" t="s">
-        <v>325</v>
-      </c>
-      <c r="H25" s="23" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="B26" t="s">
-        <v>160</v>
-      </c>
-      <c r="C26" t="s">
-        <v>325</v>
-      </c>
-      <c r="D26" t="s">
-        <v>329</v>
-      </c>
-      <c r="E26" t="s">
-        <v>325</v>
-      </c>
-      <c r="F26" t="s">
-        <v>325</v>
-      </c>
-      <c r="G26" t="s">
-        <v>325</v>
-      </c>
-      <c r="H26" s="23" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="B27" t="s">
-        <v>160</v>
-      </c>
-      <c r="C27" t="s">
-        <v>325</v>
-      </c>
-      <c r="D27" t="s">
-        <v>329</v>
-      </c>
-      <c r="E27" t="s">
-        <v>325</v>
-      </c>
-      <c r="F27" t="s">
-        <v>325</v>
-      </c>
-      <c r="G27" t="s">
-        <v>325</v>
-      </c>
-      <c r="H27" s="23" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="B28" t="s">
-        <v>160</v>
-      </c>
-      <c r="C28" t="s">
-        <v>325</v>
-      </c>
-      <c r="D28" t="s">
-        <v>329</v>
-      </c>
-      <c r="E28" t="s">
-        <v>325</v>
-      </c>
-      <c r="F28" t="s">
-        <v>325</v>
-      </c>
-      <c r="G28" t="s">
-        <v>325</v>
-      </c>
-      <c r="H28" s="23" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="B29" t="s">
-        <v>160</v>
-      </c>
-      <c r="C29" t="s">
-        <v>325</v>
-      </c>
-      <c r="D29" t="s">
-        <v>329</v>
-      </c>
-      <c r="E29" t="s">
-        <v>325</v>
-      </c>
-      <c r="F29" t="s">
-        <v>325</v>
-      </c>
-      <c r="G29" t="s">
-        <v>325</v>
-      </c>
-      <c r="H29" s="23" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="B30" t="s">
-        <v>160</v>
-      </c>
-      <c r="C30" t="s">
-        <v>325</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="F37" t="s">
+        <v>328</v>
+      </c>
+      <c r="G37" t="s">
+        <v>328</v>
+      </c>
+      <c r="H37" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="26"/>
+      <c r="B38" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="C38" t="s">
+        <v>309</v>
+      </c>
+      <c r="D38" t="s">
+        <v>328</v>
+      </c>
+      <c r="E38" t="s">
         <v>326</v>
       </c>
-      <c r="E30" t="s">
-        <v>325</v>
-      </c>
-      <c r="F30" t="s">
-        <v>325</v>
-      </c>
-      <c r="G30" t="s">
-        <v>325</v>
-      </c>
-      <c r="H30" s="23" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="B31" t="s">
-        <v>160</v>
-      </c>
-      <c r="C31" t="s">
-        <v>325</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="F38" t="s">
+        <v>328</v>
+      </c>
+      <c r="G38" t="s">
+        <v>328</v>
+      </c>
+      <c r="H38" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="24"/>
+      <c r="B39" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C39" t="s">
+        <v>309</v>
+      </c>
+      <c r="D39" t="s">
+        <v>328</v>
+      </c>
+      <c r="E39" t="s">
         <v>326</v>
       </c>
-      <c r="E31" t="s">
-        <v>325</v>
-      </c>
-      <c r="F31" t="s">
-        <v>325</v>
-      </c>
-      <c r="G31" t="s">
-        <v>325</v>
-      </c>
-      <c r="H31" s="23" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="B32" t="s">
-        <v>160</v>
-      </c>
-      <c r="C32" t="s">
-        <v>325</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="F39" t="s">
+        <v>328</v>
+      </c>
+      <c r="G39" t="s">
+        <v>328</v>
+      </c>
+      <c r="H39" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="24"/>
+      <c r="B40" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C40" t="s">
+        <v>309</v>
+      </c>
+      <c r="D40" t="s">
+        <v>328</v>
+      </c>
+      <c r="E40" t="s">
         <v>326</v>
       </c>
-      <c r="E32" t="s">
-        <v>325</v>
-      </c>
-      <c r="F32" t="s">
-        <v>325</v>
-      </c>
-      <c r="G32" t="s">
-        <v>325</v>
-      </c>
-      <c r="H32" s="23" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="B33" t="s">
-        <v>160</v>
-      </c>
-      <c r="C33" t="s">
-        <v>325</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="F40" t="s">
+        <v>328</v>
+      </c>
+      <c r="G40" t="s">
+        <v>328</v>
+      </c>
+      <c r="H40" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="24"/>
+      <c r="B41" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C41" t="s">
+        <v>309</v>
+      </c>
+      <c r="D41" t="s">
+        <v>328</v>
+      </c>
+      <c r="E41" t="s">
         <v>326</v>
       </c>
-      <c r="E33" t="s">
-        <v>325</v>
-      </c>
-      <c r="F33" t="s">
-        <v>325</v>
-      </c>
-      <c r="G33" t="s">
-        <v>325</v>
-      </c>
-      <c r="H33" s="23" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="B34" t="s">
-        <v>160</v>
-      </c>
-      <c r="C34" t="s">
-        <v>327</v>
-      </c>
-      <c r="D34" t="s">
-        <v>327</v>
-      </c>
-      <c r="E34" t="s">
-        <v>327</v>
-      </c>
-      <c r="F34" t="s">
-        <v>327</v>
-      </c>
-      <c r="G34" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="28" t="s">
-        <v>290</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="F41" t="s">
+        <v>328</v>
+      </c>
+      <c r="G41" t="s">
+        <v>328</v>
+      </c>
+      <c r="H41" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="24"/>
+      <c r="B42" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C42" t="s">
         <v>309</v>
       </c>
-      <c r="C35" t="s">
-        <v>329</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="D42" t="s">
+        <v>328</v>
+      </c>
+      <c r="E42" t="s">
         <v>326</v>
       </c>
-      <c r="E35" t="s">
-        <v>329</v>
-      </c>
-      <c r="F35" t="s">
-        <v>329</v>
-      </c>
-      <c r="G35" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="B36" t="s">
+      <c r="F42" t="s">
+        <v>328</v>
+      </c>
+      <c r="G42" t="s">
+        <v>328</v>
+      </c>
+      <c r="H42" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="24"/>
+      <c r="B43" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C43" t="s">
         <v>309</v>
       </c>
-      <c r="C36" t="s">
-        <v>329</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="D43" t="s">
+        <v>328</v>
+      </c>
+      <c r="E43" t="s">
         <v>326</v>
       </c>
-      <c r="E36" t="s">
-        <v>329</v>
-      </c>
-      <c r="F36" t="s">
-        <v>329</v>
-      </c>
-      <c r="G36" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="B37" t="s">
+      <c r="F43" t="s">
+        <v>328</v>
+      </c>
+      <c r="G43" t="s">
+        <v>328</v>
+      </c>
+      <c r="H43" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="24"/>
+      <c r="B44" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C44" t="s">
         <v>309</v>
       </c>
-      <c r="C37" t="s">
-        <v>329</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="D44" t="s">
+        <v>328</v>
+      </c>
+      <c r="E44" t="s">
         <v>326</v>
       </c>
-      <c r="E37" t="s">
-        <v>329</v>
-      </c>
-      <c r="F37" t="s">
-        <v>329</v>
-      </c>
-      <c r="G37" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="B38" t="s">
+      <c r="F44" t="s">
+        <v>328</v>
+      </c>
+      <c r="G44" t="s">
+        <v>328</v>
+      </c>
+      <c r="H44" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="24"/>
+      <c r="B45" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C45" t="s">
         <v>309</v>
       </c>
-      <c r="C38" t="s">
-        <v>329</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="D45" t="s">
+        <v>328</v>
+      </c>
+      <c r="E45" t="s">
         <v>326</v>
       </c>
-      <c r="E38" t="s">
-        <v>329</v>
-      </c>
-      <c r="F38" t="s">
-        <v>329</v>
-      </c>
-      <c r="G38" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="B39" t="s">
+      <c r="F45" t="s">
+        <v>328</v>
+      </c>
+      <c r="G45" t="s">
+        <v>328</v>
+      </c>
+      <c r="H45" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="24"/>
+      <c r="B46" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C46" t="s">
         <v>309</v>
       </c>
-      <c r="C39" t="s">
-        <v>329</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="D46" t="s">
+        <v>328</v>
+      </c>
+      <c r="E46" t="s">
         <v>326</v>
       </c>
-      <c r="E39" t="s">
-        <v>329</v>
-      </c>
-      <c r="F39" t="s">
-        <v>329</v>
-      </c>
-      <c r="G39" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="B40" t="s">
+      <c r="F46" t="s">
+        <v>328</v>
+      </c>
+      <c r="G46" t="s">
+        <v>328</v>
+      </c>
+      <c r="H46" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="24"/>
+      <c r="B47" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="C47" t="s">
         <v>309</v>
       </c>
-      <c r="C40" t="s">
-        <v>329</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="D47" t="s">
+        <v>328</v>
+      </c>
+      <c r="E47" t="s">
         <v>326</v>
       </c>
-      <c r="E40" t="s">
-        <v>329</v>
-      </c>
-      <c r="F40" t="s">
-        <v>329</v>
-      </c>
-      <c r="G40" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="B41" t="s">
+      <c r="F47" t="s">
+        <v>328</v>
+      </c>
+      <c r="G47" t="s">
+        <v>328</v>
+      </c>
+      <c r="H47" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="24"/>
+      <c r="B48" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="C48" t="s">
         <v>309</v>
       </c>
-      <c r="C41" t="s">
-        <v>329</v>
-      </c>
-      <c r="D41" t="s">
-        <v>326</v>
-      </c>
-      <c r="E41" t="s">
-        <v>329</v>
-      </c>
-      <c r="F41" t="s">
-        <v>329</v>
-      </c>
-      <c r="G41" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="B42" t="s">
-        <v>309</v>
-      </c>
-      <c r="C42" t="s">
-        <v>329</v>
-      </c>
-      <c r="D42" t="s">
-        <v>326</v>
-      </c>
-      <c r="E42" t="s">
-        <v>329</v>
-      </c>
-      <c r="F42" t="s">
-        <v>329</v>
-      </c>
-      <c r="G42" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="B43" t="s">
-        <v>309</v>
-      </c>
-      <c r="C43" t="s">
-        <v>329</v>
-      </c>
-      <c r="D43" t="s">
-        <v>326</v>
-      </c>
-      <c r="E43" t="s">
-        <v>329</v>
-      </c>
-      <c r="F43" t="s">
-        <v>329</v>
-      </c>
-      <c r="G43" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="B44" t="s">
-        <v>309</v>
-      </c>
-      <c r="C44" t="s">
-        <v>329</v>
-      </c>
-      <c r="D44" t="s">
-        <v>326</v>
-      </c>
-      <c r="E44" t="s">
-        <v>329</v>
-      </c>
-      <c r="F44" t="s">
-        <v>329</v>
-      </c>
-      <c r="G44" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="12" t="s">
-        <v>305</v>
-      </c>
-      <c r="B45" t="s">
-        <v>309</v>
-      </c>
-      <c r="C45" t="s">
-        <v>329</v>
-      </c>
-      <c r="D45" t="s">
-        <v>326</v>
-      </c>
-      <c r="E45" t="s">
-        <v>329</v>
-      </c>
-      <c r="F45" t="s">
-        <v>329</v>
-      </c>
-      <c r="G45" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="12" t="s">
-        <v>303</v>
-      </c>
-      <c r="B46" t="s">
-        <v>309</v>
-      </c>
-      <c r="C46" t="s">
-        <v>329</v>
-      </c>
-      <c r="D46" t="s">
-        <v>326</v>
-      </c>
-      <c r="E46" t="s">
-        <v>329</v>
-      </c>
-      <c r="F46" t="s">
-        <v>329</v>
-      </c>
-      <c r="G46" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="B47" t="s">
-        <v>309</v>
-      </c>
-      <c r="C47" t="s">
-        <v>329</v>
-      </c>
-      <c r="D47" t="s">
-        <v>326</v>
-      </c>
-      <c r="E47" t="s">
-        <v>329</v>
-      </c>
-      <c r="F47" t="s">
-        <v>329</v>
-      </c>
-      <c r="G47" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B48" t="s">
-        <v>5</v>
-      </c>
-      <c r="C48" t="s">
-        <v>326</v>
-      </c>
       <c r="D48" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E48" t="s">
         <v>326</v>
       </c>
       <c r="F48" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="G48" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B49" t="s">
-        <v>5</v>
+        <v>328</v>
+      </c>
+      <c r="H48" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="24"/>
+      <c r="B49" s="12" t="s">
+        <v>304</v>
       </c>
       <c r="C49" t="s">
-        <v>326</v>
+        <v>309</v>
       </c>
       <c r="D49" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E49" t="s">
         <v>326</v>
       </c>
       <c r="F49" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="G49" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B50" t="s">
+        <v>328</v>
+      </c>
+      <c r="H49" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B50" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C50" t="s">
         <v>5</v>
-      </c>
-      <c r="C50" t="s">
-        <v>326</v>
       </c>
       <c r="D50" t="s">
         <v>326</v>
@@ -18477,428 +18640,483 @@
       <c r="G50" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
+      <c r="H50" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="24"/>
+      <c r="B51" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" t="s">
+        <v>326</v>
+      </c>
+      <c r="E51" t="s">
+        <v>326</v>
+      </c>
+      <c r="F51" t="s">
+        <v>326</v>
+      </c>
+      <c r="G51" t="s">
+        <v>326</v>
+      </c>
+      <c r="H51" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="24" t="s">
+        <v>333</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C52" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" t="s">
+        <v>326</v>
+      </c>
+      <c r="E52" t="s">
+        <v>326</v>
+      </c>
+      <c r="F52" t="s">
+        <v>326</v>
+      </c>
+      <c r="G52" t="s">
+        <v>326</v>
+      </c>
+      <c r="H52" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="24" t="s">
+        <v>333</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C53" t="s">
         <v>5</v>
       </c>
-      <c r="C51" t="s">
-        <v>325</v>
-      </c>
-      <c r="D51" t="s">
-        <v>325</v>
-      </c>
-      <c r="E51" t="s">
-        <v>325</v>
-      </c>
-      <c r="F51" t="s">
-        <v>325</v>
-      </c>
-      <c r="G51" t="s">
-        <v>325</v>
-      </c>
-      <c r="H51" s="23" t="s">
+      <c r="D53" t="s">
+        <v>325</v>
+      </c>
+      <c r="E53" t="s">
+        <v>325</v>
+      </c>
+      <c r="F53" t="s">
+        <v>325</v>
+      </c>
+      <c r="G53" t="s">
+        <v>325</v>
+      </c>
+      <c r="H53" t="s">
+        <v>325</v>
+      </c>
+      <c r="I53" s="23" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="24" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
+      <c r="B54" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C54" t="s">
         <v>5</v>
       </c>
-      <c r="C52" t="s">
-        <v>325</v>
-      </c>
-      <c r="D52" t="s">
-        <v>325</v>
-      </c>
-      <c r="E52" t="s">
-        <v>325</v>
-      </c>
-      <c r="F52" t="s">
-        <v>325</v>
-      </c>
-      <c r="G52" t="s">
-        <v>325</v>
-      </c>
-      <c r="H52" s="23" t="s">
+      <c r="D54" t="s">
+        <v>325</v>
+      </c>
+      <c r="E54" t="s">
+        <v>325</v>
+      </c>
+      <c r="F54" t="s">
+        <v>325</v>
+      </c>
+      <c r="G54" t="s">
+        <v>325</v>
+      </c>
+      <c r="H54" t="s">
+        <v>325</v>
+      </c>
+      <c r="I54" s="23" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="24" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
+      <c r="B55" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C55" t="s">
         <v>5</v>
       </c>
-      <c r="C53" t="s">
-        <v>325</v>
-      </c>
-      <c r="D53" t="s">
-        <v>325</v>
-      </c>
-      <c r="E53" t="s">
-        <v>325</v>
-      </c>
-      <c r="F53" t="s">
-        <v>325</v>
-      </c>
-      <c r="G53" t="s">
-        <v>325</v>
-      </c>
-      <c r="H53" s="23" t="s">
+      <c r="D55" t="s">
+        <v>325</v>
+      </c>
+      <c r="E55" t="s">
+        <v>325</v>
+      </c>
+      <c r="F55" t="s">
+        <v>325</v>
+      </c>
+      <c r="G55" t="s">
+        <v>325</v>
+      </c>
+      <c r="H55" t="s">
+        <v>325</v>
+      </c>
+      <c r="I55" s="23" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="24" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
+      <c r="B56" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C56" t="s">
         <v>5</v>
       </c>
-      <c r="C54" t="s">
-        <v>325</v>
-      </c>
-      <c r="D54" t="s">
-        <v>325</v>
-      </c>
-      <c r="E54" t="s">
-        <v>325</v>
-      </c>
-      <c r="F54" t="s">
-        <v>325</v>
-      </c>
-      <c r="G54" t="s">
-        <v>325</v>
-      </c>
-      <c r="H54" s="23" t="s">
+      <c r="D56" t="s">
+        <v>325</v>
+      </c>
+      <c r="E56" t="s">
+        <v>325</v>
+      </c>
+      <c r="F56" t="s">
+        <v>325</v>
+      </c>
+      <c r="G56" t="s">
+        <v>325</v>
+      </c>
+      <c r="H56" t="s">
+        <v>325</v>
+      </c>
+      <c r="I56" s="23" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="24" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
+      <c r="B57" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C57" t="s">
         <v>5</v>
       </c>
-      <c r="C55" t="s">
-        <v>325</v>
-      </c>
-      <c r="D55" t="s">
-        <v>325</v>
-      </c>
-      <c r="E55" t="s">
-        <v>325</v>
-      </c>
-      <c r="F55" t="s">
-        <v>325</v>
-      </c>
-      <c r="G55" t="s">
-        <v>325</v>
-      </c>
-      <c r="H55" s="23" t="s">
+      <c r="D57" t="s">
+        <v>325</v>
+      </c>
+      <c r="E57" t="s">
+        <v>325</v>
+      </c>
+      <c r="F57" t="s">
+        <v>325</v>
+      </c>
+      <c r="G57" t="s">
+        <v>325</v>
+      </c>
+      <c r="H57" t="s">
+        <v>325</v>
+      </c>
+      <c r="I57" s="23" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="24" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
+      <c r="B58" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C58" t="s">
         <v>5</v>
       </c>
-      <c r="C56" t="s">
-        <v>325</v>
-      </c>
-      <c r="D56" t="s">
-        <v>325</v>
-      </c>
-      <c r="E56" t="s">
-        <v>325</v>
-      </c>
-      <c r="F56" t="s">
-        <v>325</v>
-      </c>
-      <c r="G56" t="s">
-        <v>325</v>
-      </c>
-      <c r="H56" s="23" t="s">
+      <c r="D58" t="s">
+        <v>325</v>
+      </c>
+      <c r="E58" t="s">
+        <v>325</v>
+      </c>
+      <c r="F58" t="s">
+        <v>325</v>
+      </c>
+      <c r="G58" t="s">
+        <v>325</v>
+      </c>
+      <c r="H58" t="s">
+        <v>325</v>
+      </c>
+      <c r="I58" s="23" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="24" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
+      <c r="B59" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C59" t="s">
         <v>5</v>
       </c>
-      <c r="C57" t="s">
-        <v>328</v>
-      </c>
-      <c r="D57" t="s">
-        <v>328</v>
-      </c>
-      <c r="E57" t="s">
-        <v>328</v>
-      </c>
-      <c r="F57" t="s">
-        <v>328</v>
-      </c>
-      <c r="G57" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
+      <c r="D59" t="s">
+        <v>325</v>
+      </c>
+      <c r="E59" t="s">
+        <v>325</v>
+      </c>
+      <c r="F59" t="s">
+        <v>325</v>
+      </c>
+      <c r="G59" t="s">
+        <v>325</v>
+      </c>
+      <c r="H59" t="s">
+        <v>325</v>
+      </c>
+      <c r="I59" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="24" t="s">
+        <v>333</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C60" t="s">
         <v>5</v>
       </c>
-      <c r="C58" t="s">
-        <v>328</v>
-      </c>
-      <c r="D58" t="s">
-        <v>328</v>
-      </c>
-      <c r="E58" t="s">
-        <v>328</v>
-      </c>
-      <c r="F58" t="s">
-        <v>328</v>
-      </c>
-      <c r="G58" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
+      <c r="D60" t="s">
+        <v>325</v>
+      </c>
+      <c r="E60" t="s">
+        <v>325</v>
+      </c>
+      <c r="F60" t="s">
+        <v>325</v>
+      </c>
+      <c r="G60" t="s">
+        <v>325</v>
+      </c>
+      <c r="H60" t="s">
+        <v>325</v>
+      </c>
+      <c r="I60" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="24" t="s">
+        <v>333</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C61" t="s">
         <v>5</v>
       </c>
-      <c r="C59" t="s">
-        <v>328</v>
-      </c>
-      <c r="D59" t="s">
-        <v>328</v>
-      </c>
-      <c r="E59" t="s">
-        <v>328</v>
-      </c>
-      <c r="F59" t="s">
-        <v>328</v>
-      </c>
-      <c r="G59" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
+      <c r="D61" t="s">
+        <v>325</v>
+      </c>
+      <c r="E61" t="s">
+        <v>325</v>
+      </c>
+      <c r="F61" t="s">
+        <v>325</v>
+      </c>
+      <c r="G61" t="s">
+        <v>325</v>
+      </c>
+      <c r="H61" t="s">
+        <v>325</v>
+      </c>
+      <c r="I61" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="24" t="s">
+        <v>333</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C62" t="s">
         <v>5</v>
       </c>
-      <c r="C60" t="s">
-        <v>328</v>
-      </c>
-      <c r="D60" t="s">
-        <v>328</v>
-      </c>
-      <c r="E60" t="s">
-        <v>328</v>
-      </c>
-      <c r="F60" t="s">
-        <v>328</v>
-      </c>
-      <c r="G60" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
+      <c r="D62" t="s">
+        <v>325</v>
+      </c>
+      <c r="E62" t="s">
+        <v>325</v>
+      </c>
+      <c r="F62" t="s">
+        <v>325</v>
+      </c>
+      <c r="G62" t="s">
+        <v>325</v>
+      </c>
+      <c r="H62" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="24" t="s">
+        <v>333</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C63" t="s">
         <v>5</v>
       </c>
-      <c r="C61" t="s">
-        <v>328</v>
-      </c>
-      <c r="D61" t="s">
-        <v>328</v>
-      </c>
-      <c r="E61" t="s">
-        <v>328</v>
-      </c>
-      <c r="F61" t="s">
-        <v>328</v>
-      </c>
-      <c r="G61" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
+      <c r="D63" t="s">
+        <v>325</v>
+      </c>
+      <c r="E63" t="s">
+        <v>325</v>
+      </c>
+      <c r="F63" t="s">
+        <v>325</v>
+      </c>
+      <c r="G63" t="s">
+        <v>325</v>
+      </c>
+      <c r="H63" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="24" t="s">
+        <v>333</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C64" t="s">
         <v>5</v>
       </c>
-      <c r="C62" t="s">
-        <v>328</v>
-      </c>
-      <c r="D62" t="s">
-        <v>328</v>
-      </c>
-      <c r="E62" t="s">
-        <v>328</v>
-      </c>
-      <c r="F62" t="s">
-        <v>328</v>
-      </c>
-      <c r="G62" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
+      <c r="D64" t="s">
+        <v>325</v>
+      </c>
+      <c r="E64" t="s">
+        <v>325</v>
+      </c>
+      <c r="F64" t="s">
+        <v>325</v>
+      </c>
+      <c r="G64" t="s">
+        <v>325</v>
+      </c>
+      <c r="H64" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="24" t="s">
+        <v>333</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C65" t="s">
         <v>5</v>
       </c>
-      <c r="C63" t="s">
-        <v>328</v>
-      </c>
-      <c r="D63" t="s">
-        <v>328</v>
-      </c>
-      <c r="E63" t="s">
-        <v>328</v>
-      </c>
-      <c r="F63" t="s">
-        <v>328</v>
-      </c>
-      <c r="G63" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="19" t="s">
+      <c r="D65" t="s">
+        <v>325</v>
+      </c>
+      <c r="E65" t="s">
+        <v>325</v>
+      </c>
+      <c r="F65" t="s">
+        <v>325</v>
+      </c>
+      <c r="G65" t="s">
+        <v>325</v>
+      </c>
+      <c r="H65" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="24"/>
+      <c r="B66" s="19" t="s">
         <v>268</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C66" t="s">
         <v>5</v>
       </c>
-      <c r="C64" t="s">
-        <v>328</v>
-      </c>
-      <c r="D64" t="s">
-        <v>328</v>
-      </c>
-      <c r="E64" t="s">
-        <v>328</v>
-      </c>
-      <c r="F64" t="s">
-        <v>328</v>
-      </c>
-      <c r="G64" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="19" t="s">
+      <c r="D66" t="s">
+        <v>327</v>
+      </c>
+      <c r="E66" t="s">
+        <v>327</v>
+      </c>
+      <c r="F66" t="s">
+        <v>327</v>
+      </c>
+      <c r="G66" t="s">
+        <v>327</v>
+      </c>
+      <c r="H66" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="24"/>
+      <c r="B67" s="19" t="s">
         <v>269</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C67" t="s">
         <v>5</v>
       </c>
-      <c r="C65" t="s">
-        <v>328</v>
-      </c>
-      <c r="D65" t="s">
-        <v>328</v>
-      </c>
-      <c r="E65" t="s">
-        <v>328</v>
-      </c>
-      <c r="F65" t="s">
-        <v>328</v>
-      </c>
-      <c r="G65" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="B66" t="s">
+      <c r="D67" t="s">
+        <v>327</v>
+      </c>
+      <c r="E67" t="s">
+        <v>327</v>
+      </c>
+      <c r="F67" t="s">
+        <v>327</v>
+      </c>
+      <c r="G67" t="s">
+        <v>327</v>
+      </c>
+      <c r="H67" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="24"/>
+      <c r="B68" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="C68" t="s">
         <v>5</v>
       </c>
-      <c r="C66" t="s">
-        <v>328</v>
-      </c>
-      <c r="D66" t="s">
-        <v>328</v>
-      </c>
-      <c r="E66" t="s">
-        <v>328</v>
-      </c>
-      <c r="F66" t="s">
-        <v>328</v>
-      </c>
-      <c r="G66" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B67" t="s">
-        <v>5</v>
-      </c>
-      <c r="C67" t="s">
-        <v>328</v>
-      </c>
-      <c r="D67" t="s">
-        <v>328</v>
-      </c>
-      <c r="E67" t="s">
-        <v>328</v>
-      </c>
-      <c r="F67" t="s">
-        <v>328</v>
-      </c>
-      <c r="G67" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="B68" t="s">
-        <v>286</v>
-      </c>
-      <c r="C68" t="s">
-        <v>326</v>
-      </c>
       <c r="D68" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="E68" t="s">
         <v>326</v>
@@ -18909,62 +19127,67 @@
       <c r="G68" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="B69" t="s">
-        <v>286</v>
+      <c r="H68" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="24"/>
+      <c r="B69" s="19" t="s">
+        <v>55</v>
       </c>
       <c r="C69" t="s">
-        <v>326</v>
+        <v>5</v>
       </c>
       <c r="D69" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="E69" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F69" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G69" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+      <c r="H69" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="24" t="s">
-        <v>283</v>
-      </c>
-      <c r="B70" t="s">
-        <v>286</v>
+        <v>333</v>
+      </c>
+      <c r="B70" s="24" t="s">
+        <v>337</v>
       </c>
       <c r="C70" t="s">
-        <v>326</v>
+        <v>5</v>
       </c>
       <c r="D70" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="E70" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F70" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G70" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="B71" t="s">
-        <v>286</v>
+        <v>325</v>
+      </c>
+      <c r="H70" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="24"/>
+      <c r="B71" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="C71" t="s">
-        <v>327</v>
+        <v>5</v>
       </c>
       <c r="D71" t="s">
         <v>327</v>
@@ -18978,108 +19201,133 @@
       <c r="G71" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="17" t="s">
+      <c r="H71" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="26" t="s">
+        <v>333</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="C72" t="s">
+        <v>286</v>
+      </c>
+      <c r="D72" t="s">
+        <v>325</v>
+      </c>
+      <c r="E72" t="s">
+        <v>325</v>
+      </c>
+      <c r="F72" t="s">
+        <v>325</v>
+      </c>
+      <c r="G72" t="s">
+        <v>325</v>
+      </c>
+      <c r="H72" t="s">
+        <v>325</v>
+      </c>
+      <c r="I72" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="26" t="s">
+        <v>333</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="C73" t="s">
+        <v>286</v>
+      </c>
+      <c r="D73" t="s">
+        <v>325</v>
+      </c>
+      <c r="E73" t="s">
+        <v>325</v>
+      </c>
+      <c r="F73" t="s">
+        <v>325</v>
+      </c>
+      <c r="G73" t="s">
+        <v>325</v>
+      </c>
+      <c r="H73" t="s">
+        <v>325</v>
+      </c>
+      <c r="I73" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="24" t="s">
+        <v>333</v>
+      </c>
+      <c r="B74" s="24" t="s">
+        <v>283</v>
+      </c>
+      <c r="C74" t="s">
+        <v>286</v>
+      </c>
+      <c r="D74" t="s">
+        <v>325</v>
+      </c>
+      <c r="E74" t="s">
+        <v>325</v>
+      </c>
+      <c r="F74" t="s">
+        <v>325</v>
+      </c>
+      <c r="G74" t="s">
+        <v>325</v>
+      </c>
+      <c r="H74" t="s">
+        <v>325</v>
+      </c>
+      <c r="I74" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="26" t="s">
+        <v>333</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="C75" t="s">
+        <v>286</v>
+      </c>
+      <c r="D75" t="s">
+        <v>325</v>
+      </c>
+      <c r="E75" t="s">
+        <v>325</v>
+      </c>
+      <c r="F75" t="s">
+        <v>325</v>
+      </c>
+      <c r="G75" t="s">
+        <v>325</v>
+      </c>
+      <c r="H75" t="s">
+        <v>325</v>
+      </c>
+      <c r="I75" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="17"/>
+      <c r="B76" s="17" t="s">
         <v>307</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C76" t="s">
         <v>111</v>
-      </c>
-      <c r="C72" t="s">
-        <v>326</v>
-      </c>
-      <c r="D72" t="s">
-        <v>326</v>
-      </c>
-      <c r="E72" t="s">
-        <v>326</v>
-      </c>
-      <c r="F72" t="s">
-        <v>326</v>
-      </c>
-      <c r="G72" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="B73" t="s">
-        <v>111</v>
-      </c>
-      <c r="C73" t="s">
-        <v>326</v>
-      </c>
-      <c r="D73" t="s">
-        <v>326</v>
-      </c>
-      <c r="E73" t="s">
-        <v>326</v>
-      </c>
-      <c r="F73" t="s">
-        <v>326</v>
-      </c>
-      <c r="G73" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="B74" t="s">
-        <v>111</v>
-      </c>
-      <c r="C74" t="s">
-        <v>326</v>
-      </c>
-      <c r="D74" t="s">
-        <v>326</v>
-      </c>
-      <c r="E74" t="s">
-        <v>326</v>
-      </c>
-      <c r="F74" t="s">
-        <v>326</v>
-      </c>
-      <c r="G74" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="B75" t="s">
-        <v>111</v>
-      </c>
-      <c r="C75" t="s">
-        <v>326</v>
-      </c>
-      <c r="D75" t="s">
-        <v>326</v>
-      </c>
-      <c r="E75" t="s">
-        <v>326</v>
-      </c>
-      <c r="F75" t="s">
-        <v>326</v>
-      </c>
-      <c r="G75" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="16" t="s">
-        <v>311</v>
-      </c>
-      <c r="B76" t="s">
-        <v>111</v>
-      </c>
-      <c r="C76" t="s">
-        <v>326</v>
       </c>
       <c r="D76" t="s">
         <v>326</v>
@@ -19093,16 +19341,17 @@
       <c r="G76" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="16" t="s">
-        <v>312</v>
-      </c>
-      <c r="B77" t="s">
+      <c r="H76" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="17"/>
+      <c r="B77" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="C77" t="s">
         <v>111</v>
-      </c>
-      <c r="C77" t="s">
-        <v>326</v>
       </c>
       <c r="D77" t="s">
         <v>326</v>
@@ -19116,16 +19365,17 @@
       <c r="G77" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="B78" t="s">
+      <c r="H77" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="17"/>
+      <c r="B78" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="C78" t="s">
         <v>111</v>
-      </c>
-      <c r="C78" t="s">
-        <v>326</v>
       </c>
       <c r="D78" t="s">
         <v>326</v>
@@ -19139,223 +19389,243 @@
       <c r="G78" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="16" t="s">
+      <c r="H78" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="17"/>
+      <c r="B79" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="C79" t="s">
+        <v>111</v>
+      </c>
+      <c r="D79" t="s">
+        <v>326</v>
+      </c>
+      <c r="E79" t="s">
+        <v>326</v>
+      </c>
+      <c r="F79" t="s">
+        <v>326</v>
+      </c>
+      <c r="G79" t="s">
+        <v>326</v>
+      </c>
+      <c r="H79" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="17"/>
+      <c r="B80" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="C80" t="s">
+        <v>111</v>
+      </c>
+      <c r="D80" t="s">
+        <v>326</v>
+      </c>
+      <c r="E80" t="s">
+        <v>326</v>
+      </c>
+      <c r="F80" t="s">
+        <v>326</v>
+      </c>
+      <c r="G80" t="s">
+        <v>326</v>
+      </c>
+      <c r="H80" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="17"/>
+      <c r="B81" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="C81" t="s">
+        <v>111</v>
+      </c>
+      <c r="D81" t="s">
+        <v>326</v>
+      </c>
+      <c r="E81" t="s">
+        <v>326</v>
+      </c>
+      <c r="F81" t="s">
+        <v>326</v>
+      </c>
+      <c r="G81" t="s">
+        <v>326</v>
+      </c>
+      <c r="H81" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="B82" s="17" t="s">
+        <v>336</v>
+      </c>
+      <c r="C82" t="s">
+        <v>111</v>
+      </c>
+      <c r="D82" t="s">
+        <v>325</v>
+      </c>
+      <c r="E82" t="s">
+        <v>325</v>
+      </c>
+      <c r="F82" t="s">
+        <v>325</v>
+      </c>
+      <c r="G82" t="s">
+        <v>325</v>
+      </c>
+      <c r="H82" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="B83" s="16" t="s">
         <v>300</v>
       </c>
-      <c r="B79" t="s">
+      <c r="C83" t="s">
         <v>111</v>
       </c>
-      <c r="C79" t="s">
-        <v>330</v>
-      </c>
-      <c r="D79" t="s">
-        <v>330</v>
-      </c>
-      <c r="E79" t="s">
-        <v>330</v>
-      </c>
-      <c r="F79" t="s">
-        <v>330</v>
-      </c>
-      <c r="G79" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="16" t="s">
+      <c r="D83" t="s">
+        <v>325</v>
+      </c>
+      <c r="E83" t="s">
+        <v>325</v>
+      </c>
+      <c r="F83" t="s">
+        <v>325</v>
+      </c>
+      <c r="G83" t="s">
+        <v>325</v>
+      </c>
+      <c r="H83" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="B84" s="16" t="s">
         <v>301</v>
       </c>
-      <c r="B80" t="s">
+      <c r="C84" t="s">
         <v>111</v>
       </c>
-      <c r="C80" t="s">
-        <v>330</v>
-      </c>
-      <c r="D80" t="s">
-        <v>330</v>
-      </c>
-      <c r="E80" t="s">
-        <v>330</v>
-      </c>
-      <c r="F80" t="s">
-        <v>330</v>
-      </c>
-      <c r="G80" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="16" t="s">
+      <c r="D84" t="s">
+        <v>325</v>
+      </c>
+      <c r="E84" t="s">
+        <v>325</v>
+      </c>
+      <c r="F84" t="s">
+        <v>325</v>
+      </c>
+      <c r="G84" t="s">
+        <v>325</v>
+      </c>
+      <c r="H84" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="B85" s="16" t="s">
         <v>302</v>
       </c>
-      <c r="B81" t="s">
+      <c r="C85" t="s">
         <v>111</v>
       </c>
-      <c r="C81" t="s">
-        <v>330</v>
-      </c>
-      <c r="D81" t="s">
-        <v>330</v>
-      </c>
-      <c r="E81" t="s">
-        <v>330</v>
-      </c>
-      <c r="F81" t="s">
-        <v>330</v>
-      </c>
-      <c r="G81" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="16" t="s">
+      <c r="D85" t="s">
+        <v>325</v>
+      </c>
+      <c r="E85" t="s">
+        <v>325</v>
+      </c>
+      <c r="F85" t="s">
+        <v>325</v>
+      </c>
+      <c r="G85" t="s">
+        <v>325</v>
+      </c>
+      <c r="H85" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="B86" s="16" t="s">
         <v>306</v>
       </c>
-      <c r="B82" t="s">
+      <c r="C86" t="s">
         <v>111</v>
       </c>
-      <c r="C82" t="s">
-        <v>330</v>
-      </c>
-      <c r="D82" t="s">
-        <v>330</v>
-      </c>
-      <c r="E82" t="s">
-        <v>330</v>
-      </c>
-      <c r="F82" t="s">
-        <v>330</v>
-      </c>
-      <c r="G82" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="16" t="s">
+      <c r="D86" t="s">
+        <v>325</v>
+      </c>
+      <c r="E86" t="s">
+        <v>325</v>
+      </c>
+      <c r="F86" t="s">
+        <v>325</v>
+      </c>
+      <c r="G86" t="s">
+        <v>325</v>
+      </c>
+      <c r="H86" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="17"/>
+      <c r="B87" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="B83" t="s">
+      <c r="C87" t="s">
         <v>111</v>
       </c>
-      <c r="C83" t="s">
-        <v>330</v>
-      </c>
-      <c r="D83" t="s">
-        <v>330</v>
-      </c>
-      <c r="E83" t="s">
-        <v>330</v>
-      </c>
-      <c r="F83" t="s">
-        <v>330</v>
-      </c>
-      <c r="G83" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="16" t="s">
+      <c r="D87" t="s">
+        <v>329</v>
+      </c>
+      <c r="E87" t="s">
+        <v>329</v>
+      </c>
+      <c r="F87" t="s">
+        <v>329</v>
+      </c>
+      <c r="G87" t="s">
+        <v>329</v>
+      </c>
+      <c r="H87" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="17"/>
+      <c r="B88" s="16" t="s">
         <v>315</v>
       </c>
-      <c r="B84" t="s">
+      <c r="C88" t="s">
         <v>111</v>
-      </c>
-      <c r="C84" t="s">
-        <v>330</v>
-      </c>
-      <c r="D84" t="s">
-        <v>330</v>
-      </c>
-      <c r="E84" t="s">
-        <v>330</v>
-      </c>
-      <c r="F84" t="s">
-        <v>330</v>
-      </c>
-      <c r="G84" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="26" t="s">
-        <v>313</v>
-      </c>
-      <c r="B85" t="s">
-        <v>111</v>
-      </c>
-      <c r="C85" t="s">
-        <v>330</v>
-      </c>
-      <c r="D85" t="s">
-        <v>330</v>
-      </c>
-      <c r="E85" t="s">
-        <v>330</v>
-      </c>
-      <c r="F85" t="s">
-        <v>330</v>
-      </c>
-      <c r="G85" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="B86" t="s">
-        <v>111</v>
-      </c>
-      <c r="C86" t="s">
-        <v>328</v>
-      </c>
-      <c r="D86" t="s">
-        <v>328</v>
-      </c>
-      <c r="E86" t="s">
-        <v>328</v>
-      </c>
-      <c r="F86" t="s">
-        <v>328</v>
-      </c>
-      <c r="G86" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="16" t="s">
-        <v>314</v>
-      </c>
-      <c r="B87" t="s">
-        <v>111</v>
-      </c>
-      <c r="C87" t="s">
-        <v>328</v>
-      </c>
-      <c r="D87" t="s">
-        <v>328</v>
-      </c>
-      <c r="E87" t="s">
-        <v>328</v>
-      </c>
-      <c r="F87" t="s">
-        <v>328</v>
-      </c>
-      <c r="G87" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="16" t="s">
-        <v>222</v>
-      </c>
-      <c r="B88" t="s">
-        <v>319</v>
-      </c>
-      <c r="C88" t="s">
-        <v>326</v>
       </c>
       <c r="D88" t="s">
         <v>329</v>
@@ -19369,630 +19639,764 @@
       <c r="G88" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="16" t="s">
+      <c r="H88" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>333</v>
+      </c>
+      <c r="B89" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="C89" t="s">
+        <v>111</v>
+      </c>
+      <c r="D89" t="s">
+        <v>325</v>
+      </c>
+      <c r="E89" t="s">
+        <v>325</v>
+      </c>
+      <c r="F89" t="s">
+        <v>325</v>
+      </c>
+      <c r="G89" t="s">
+        <v>325</v>
+      </c>
+      <c r="H89" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="17"/>
+      <c r="B90" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="C90" t="s">
+        <v>111</v>
+      </c>
+      <c r="D90" t="s">
+        <v>327</v>
+      </c>
+      <c r="E90" t="s">
+        <v>327</v>
+      </c>
+      <c r="F90" t="s">
+        <v>327</v>
+      </c>
+      <c r="G90" t="s">
+        <v>327</v>
+      </c>
+      <c r="H90" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="17"/>
+      <c r="B91" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="C91" t="s">
+        <v>111</v>
+      </c>
+      <c r="D91" t="s">
+        <v>327</v>
+      </c>
+      <c r="E91" t="s">
+        <v>327</v>
+      </c>
+      <c r="F91" t="s">
+        <v>327</v>
+      </c>
+      <c r="G91" t="s">
+        <v>327</v>
+      </c>
+      <c r="H91" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="17"/>
+      <c r="B92" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="C92" t="s">
+        <v>319</v>
+      </c>
+      <c r="D92" t="s">
+        <v>326</v>
+      </c>
+      <c r="E92" t="s">
+        <v>328</v>
+      </c>
+      <c r="F92" t="s">
+        <v>328</v>
+      </c>
+      <c r="G92" t="s">
+        <v>328</v>
+      </c>
+      <c r="H92" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="17"/>
+      <c r="B93" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="B89" t="s">
+      <c r="C93" t="s">
         <v>319</v>
       </c>
-      <c r="C89" t="s">
+      <c r="D93" t="s">
         <v>326</v>
       </c>
-      <c r="D89" t="s">
-        <v>329</v>
-      </c>
-      <c r="E89" t="s">
-        <v>329</v>
-      </c>
-      <c r="F89" t="s">
-        <v>329</v>
-      </c>
-      <c r="G89" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="16" t="s">
+      <c r="E93" t="s">
+        <v>328</v>
+      </c>
+      <c r="F93" t="s">
+        <v>328</v>
+      </c>
+      <c r="G93" t="s">
+        <v>328</v>
+      </c>
+      <c r="H93" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="17"/>
+      <c r="B94" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="B90" t="s">
+      <c r="C94" t="s">
         <v>319</v>
       </c>
-      <c r="C90" t="s">
+      <c r="D94" t="s">
         <v>326</v>
       </c>
-      <c r="D90" t="s">
-        <v>329</v>
-      </c>
-      <c r="E90" t="s">
-        <v>329</v>
-      </c>
-      <c r="F90" t="s">
-        <v>329</v>
-      </c>
-      <c r="G90" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="16" t="s">
+      <c r="E94" t="s">
+        <v>328</v>
+      </c>
+      <c r="F94" t="s">
+        <v>328</v>
+      </c>
+      <c r="G94" t="s">
+        <v>328</v>
+      </c>
+      <c r="H94" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="17"/>
+      <c r="B95" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C95" t="s">
         <v>319</v>
       </c>
-      <c r="C91" t="s">
+      <c r="D95" t="s">
         <v>326</v>
       </c>
-      <c r="D91" t="s">
-        <v>329</v>
-      </c>
-      <c r="E91" t="s">
-        <v>329</v>
-      </c>
-      <c r="F91" t="s">
-        <v>329</v>
-      </c>
-      <c r="G91" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="26" t="s">
+      <c r="E95" t="s">
+        <v>328</v>
+      </c>
+      <c r="F95" t="s">
+        <v>328</v>
+      </c>
+      <c r="G95" t="s">
+        <v>328</v>
+      </c>
+      <c r="H95" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B96" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="B92" t="s">
+      <c r="C96" t="s">
         <v>319</v>
       </c>
-      <c r="C92" t="s">
+      <c r="D96" t="s">
         <v>326</v>
       </c>
-      <c r="D92" t="s">
-        <v>329</v>
-      </c>
-      <c r="E92" t="s">
-        <v>329</v>
-      </c>
-      <c r="F92" t="s">
-        <v>329</v>
-      </c>
-      <c r="G92" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="26" t="s">
+      <c r="E96" t="s">
+        <v>328</v>
+      </c>
+      <c r="F96" t="s">
+        <v>328</v>
+      </c>
+      <c r="G96" t="s">
+        <v>328</v>
+      </c>
+      <c r="H96" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B97" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="B93" t="s">
+      <c r="C97" t="s">
         <v>319</v>
       </c>
-      <c r="C93" t="s">
+      <c r="D97" t="s">
         <v>326</v>
       </c>
-      <c r="D93" t="s">
-        <v>329</v>
-      </c>
-      <c r="E93" t="s">
-        <v>329</v>
-      </c>
-      <c r="F93" t="s">
-        <v>329</v>
-      </c>
-      <c r="G93" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="26" t="s">
+      <c r="E97" t="s">
+        <v>328</v>
+      </c>
+      <c r="F97" t="s">
+        <v>328</v>
+      </c>
+      <c r="G97" t="s">
+        <v>328</v>
+      </c>
+      <c r="H97" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B98" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="B94" t="s">
+      <c r="C98" t="s">
         <v>319</v>
       </c>
-      <c r="C94" t="s">
+      <c r="D98" t="s">
         <v>326</v>
       </c>
-      <c r="D94" t="s">
-        <v>329</v>
-      </c>
-      <c r="E94" t="s">
-        <v>329</v>
-      </c>
-      <c r="F94" t="s">
-        <v>329</v>
-      </c>
-      <c r="G94" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="26" t="s">
+      <c r="E98" t="s">
+        <v>328</v>
+      </c>
+      <c r="F98" t="s">
+        <v>328</v>
+      </c>
+      <c r="G98" t="s">
+        <v>328</v>
+      </c>
+      <c r="H98" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B99" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="B95" t="s">
+      <c r="C99" t="s">
         <v>319</v>
       </c>
-      <c r="C95" t="s">
+      <c r="D99" t="s">
         <v>326</v>
       </c>
-      <c r="D95" t="s">
-        <v>329</v>
-      </c>
-      <c r="E95" t="s">
-        <v>329</v>
-      </c>
-      <c r="F95" t="s">
-        <v>329</v>
-      </c>
-      <c r="G95" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="26" t="s">
+      <c r="E99" t="s">
+        <v>328</v>
+      </c>
+      <c r="F99" t="s">
+        <v>328</v>
+      </c>
+      <c r="G99" t="s">
+        <v>328</v>
+      </c>
+      <c r="H99" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B100" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="B96" t="s">
+      <c r="C100" t="s">
         <v>319</v>
       </c>
-      <c r="C96" t="s">
+      <c r="D100" t="s">
         <v>326</v>
       </c>
-      <c r="D96" t="s">
-        <v>329</v>
-      </c>
-      <c r="E96" t="s">
-        <v>329</v>
-      </c>
-      <c r="F96" t="s">
-        <v>329</v>
-      </c>
-      <c r="G96" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="26" t="s">
+      <c r="E100" t="s">
+        <v>328</v>
+      </c>
+      <c r="F100" t="s">
+        <v>328</v>
+      </c>
+      <c r="G100" t="s">
+        <v>328</v>
+      </c>
+      <c r="H100" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B101" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="B97" t="s">
+      <c r="C101" t="s">
         <v>319</v>
       </c>
-      <c r="C97" t="s">
+      <c r="D101" t="s">
         <v>326</v>
       </c>
-      <c r="D97" t="s">
-        <v>329</v>
-      </c>
-      <c r="E97" t="s">
-        <v>329</v>
-      </c>
-      <c r="F97" t="s">
-        <v>329</v>
-      </c>
-      <c r="G97" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="26" t="s">
+      <c r="E101" t="s">
+        <v>328</v>
+      </c>
+      <c r="F101" t="s">
+        <v>328</v>
+      </c>
+      <c r="G101" t="s">
+        <v>328</v>
+      </c>
+      <c r="H101" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B102" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="B98" t="s">
+      <c r="C102" t="s">
         <v>319</v>
       </c>
-      <c r="C98" t="s">
+      <c r="D102" t="s">
         <v>326</v>
       </c>
-      <c r="D98" t="s">
-        <v>329</v>
-      </c>
-      <c r="E98" t="s">
-        <v>329</v>
-      </c>
-      <c r="F98" t="s">
-        <v>329</v>
-      </c>
-      <c r="G98" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="11" t="s">
+      <c r="E102" t="s">
+        <v>328</v>
+      </c>
+      <c r="F102" t="s">
+        <v>328</v>
+      </c>
+      <c r="G102" t="s">
+        <v>328</v>
+      </c>
+      <c r="H102" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B103" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="B99" t="s">
+      <c r="C103" t="s">
         <v>319</v>
       </c>
-      <c r="C99" t="s">
+      <c r="D103" t="s">
+        <v>327</v>
+      </c>
+      <c r="E103" t="s">
         <v>328</v>
       </c>
-      <c r="D99" t="s">
-        <v>329</v>
-      </c>
-      <c r="E99" t="s">
-        <v>329</v>
-      </c>
-      <c r="F99" t="s">
-        <v>329</v>
-      </c>
-      <c r="G99" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="11" t="s">
+      <c r="F103" t="s">
+        <v>328</v>
+      </c>
+      <c r="G103" t="s">
+        <v>328</v>
+      </c>
+      <c r="H103" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B104" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="B100" t="s">
+      <c r="C104" t="s">
         <v>319</v>
       </c>
-      <c r="C100" t="s">
-        <v>331</v>
-      </c>
-      <c r="D100" t="s">
-        <v>329</v>
-      </c>
-      <c r="E100" t="s">
-        <v>329</v>
-      </c>
-      <c r="F100" t="s">
-        <v>329</v>
-      </c>
-      <c r="G100" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="29" t="s">
+      <c r="D104" t="s">
+        <v>330</v>
+      </c>
+      <c r="E104" t="s">
+        <v>328</v>
+      </c>
+      <c r="F104" t="s">
+        <v>328</v>
+      </c>
+      <c r="G104" t="s">
+        <v>328</v>
+      </c>
+      <c r="H104" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>333</v>
+      </c>
+      <c r="B105" t="s">
         <v>287</v>
       </c>
-      <c r="B101" t="s">
+      <c r="C105" t="s">
         <v>288</v>
       </c>
-      <c r="C101" t="s">
-        <v>325</v>
-      </c>
-      <c r="D101" t="s">
-        <v>325</v>
-      </c>
-      <c r="E101" t="s">
-        <v>325</v>
-      </c>
-      <c r="F101" t="s">
-        <v>325</v>
-      </c>
-      <c r="G101" t="s">
-        <v>325</v>
-      </c>
-      <c r="H101" s="23" t="s">
+      <c r="D105" t="s">
+        <v>325</v>
+      </c>
+      <c r="E105" t="s">
+        <v>325</v>
+      </c>
+      <c r="F105" t="s">
+        <v>325</v>
+      </c>
+      <c r="G105" t="s">
+        <v>325</v>
+      </c>
+      <c r="H105" t="s">
+        <v>325</v>
+      </c>
+      <c r="I105" s="23" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="25" t="s">
+      <c r="B106" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B102" t="s">
+      <c r="C106" t="s">
         <v>288</v>
       </c>
-      <c r="C102" t="s">
-        <v>325</v>
-      </c>
-      <c r="D102" t="s">
-        <v>325</v>
-      </c>
-      <c r="E102" t="s">
-        <v>325</v>
-      </c>
-      <c r="F102" t="s">
-        <v>325</v>
-      </c>
-      <c r="G102" t="s">
-        <v>325</v>
-      </c>
-      <c r="H102" s="23" t="s">
+      <c r="D106" t="s">
+        <v>325</v>
+      </c>
+      <c r="E106" t="s">
+        <v>325</v>
+      </c>
+      <c r="F106" t="s">
+        <v>325</v>
+      </c>
+      <c r="G106" t="s">
+        <v>325</v>
+      </c>
+      <c r="H106" t="s">
+        <v>325</v>
+      </c>
+      <c r="I106" s="23" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="25" t="s">
+      <c r="B107" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B103" t="s">
+      <c r="C107" t="s">
         <v>288</v>
       </c>
-      <c r="C103" t="s">
-        <v>325</v>
-      </c>
-      <c r="D103" t="s">
-        <v>325</v>
-      </c>
-      <c r="E103" t="s">
-        <v>325</v>
-      </c>
-      <c r="F103" t="s">
-        <v>325</v>
-      </c>
-      <c r="G103" t="s">
-        <v>325</v>
-      </c>
-      <c r="H103" s="23" t="s">
+      <c r="D107" t="s">
+        <v>325</v>
+      </c>
+      <c r="E107" t="s">
+        <v>325</v>
+      </c>
+      <c r="F107" t="s">
+        <v>325</v>
+      </c>
+      <c r="G107" t="s">
+        <v>325</v>
+      </c>
+      <c r="H107" t="s">
+        <v>325</v>
+      </c>
+      <c r="I107" s="23" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="25" t="s">
+      <c r="B108" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B104" t="s">
+      <c r="C108" t="s">
         <v>288</v>
       </c>
-      <c r="C104" t="s">
-        <v>325</v>
-      </c>
-      <c r="D104" t="s">
-        <v>325</v>
-      </c>
-      <c r="E104" t="s">
-        <v>325</v>
-      </c>
-      <c r="F104" t="s">
-        <v>325</v>
-      </c>
-      <c r="G104" t="s">
-        <v>325</v>
-      </c>
-      <c r="H104" s="23" t="s">
+      <c r="D108" t="s">
+        <v>325</v>
+      </c>
+      <c r="E108" t="s">
+        <v>325</v>
+      </c>
+      <c r="F108" t="s">
+        <v>325</v>
+      </c>
+      <c r="G108" t="s">
+        <v>325</v>
+      </c>
+      <c r="H108" t="s">
+        <v>325</v>
+      </c>
+      <c r="I108" s="23" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="25" t="s">
+      <c r="B109" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B105" t="s">
+      <c r="C109" t="s">
         <v>288</v>
       </c>
-      <c r="C105" t="s">
-        <v>325</v>
-      </c>
-      <c r="D105" t="s">
-        <v>325</v>
-      </c>
-      <c r="E105" t="s">
-        <v>325</v>
-      </c>
-      <c r="F105" t="s">
-        <v>325</v>
-      </c>
-      <c r="G105" t="s">
-        <v>325</v>
-      </c>
-      <c r="H105" s="23" t="s">
+      <c r="D109" t="s">
+        <v>325</v>
+      </c>
+      <c r="E109" t="s">
+        <v>325</v>
+      </c>
+      <c r="F109" t="s">
+        <v>325</v>
+      </c>
+      <c r="G109" t="s">
+        <v>325</v>
+      </c>
+      <c r="H109" t="s">
+        <v>325</v>
+      </c>
+      <c r="I109" s="23" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="25" t="s">
+      <c r="B110" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B106" t="s">
+      <c r="C110" t="s">
         <v>288</v>
       </c>
-      <c r="C106" t="s">
-        <v>325</v>
-      </c>
-      <c r="D106" t="s">
-        <v>325</v>
-      </c>
-      <c r="E106" t="s">
-        <v>325</v>
-      </c>
-      <c r="F106" t="s">
-        <v>325</v>
-      </c>
-      <c r="G106" t="s">
-        <v>325</v>
-      </c>
-      <c r="H106" s="23" t="s">
+      <c r="D110" t="s">
+        <v>325</v>
+      </c>
+      <c r="E110" t="s">
+        <v>325</v>
+      </c>
+      <c r="F110" t="s">
+        <v>325</v>
+      </c>
+      <c r="G110" t="s">
+        <v>325</v>
+      </c>
+      <c r="H110" t="s">
+        <v>325</v>
+      </c>
+      <c r="I110" s="23" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="25" t="s">
+      <c r="B111" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B107" t="s">
+      <c r="C111" t="s">
         <v>288</v>
       </c>
-      <c r="C107" t="s">
-        <v>325</v>
-      </c>
-      <c r="D107" t="s">
-        <v>325</v>
-      </c>
-      <c r="E107" t="s">
-        <v>325</v>
-      </c>
-      <c r="F107" t="s">
-        <v>325</v>
-      </c>
-      <c r="G107" t="s">
-        <v>325</v>
-      </c>
-      <c r="H107" s="23" t="s">
+      <c r="D111" t="s">
+        <v>325</v>
+      </c>
+      <c r="E111" t="s">
+        <v>325</v>
+      </c>
+      <c r="F111" t="s">
+        <v>325</v>
+      </c>
+      <c r="G111" t="s">
+        <v>325</v>
+      </c>
+      <c r="H111" t="s">
+        <v>325</v>
+      </c>
+      <c r="I111" s="23" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="25" t="s">
+      <c r="B112" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B108" t="s">
+      <c r="C112" t="s">
         <v>288</v>
       </c>
-      <c r="C108" t="s">
-        <v>325</v>
-      </c>
-      <c r="D108" t="s">
-        <v>325</v>
-      </c>
-      <c r="E108" t="s">
-        <v>325</v>
-      </c>
-      <c r="F108" t="s">
-        <v>325</v>
-      </c>
-      <c r="G108" t="s">
-        <v>325</v>
-      </c>
-      <c r="H108" s="23" t="s">
+      <c r="D112" t="s">
+        <v>325</v>
+      </c>
+      <c r="E112" t="s">
+        <v>325</v>
+      </c>
+      <c r="F112" t="s">
+        <v>325</v>
+      </c>
+      <c r="G112" t="s">
+        <v>325</v>
+      </c>
+      <c r="H112" t="s">
+        <v>325</v>
+      </c>
+      <c r="I112" s="23" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="25" t="s">
+      <c r="B113" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B109" t="s">
+      <c r="C113" t="s">
         <v>288</v>
       </c>
-      <c r="C109" t="s">
-        <v>325</v>
-      </c>
-      <c r="D109" t="s">
-        <v>325</v>
-      </c>
-      <c r="E109" t="s">
-        <v>325</v>
-      </c>
-      <c r="F109" t="s">
-        <v>325</v>
-      </c>
-      <c r="G109" t="s">
-        <v>325</v>
-      </c>
-      <c r="H109" s="23" t="s">
+      <c r="D113" t="s">
+        <v>325</v>
+      </c>
+      <c r="E113" t="s">
+        <v>325</v>
+      </c>
+      <c r="F113" t="s">
+        <v>325</v>
+      </c>
+      <c r="G113" t="s">
+        <v>325</v>
+      </c>
+      <c r="H113" t="s">
+        <v>325</v>
+      </c>
+      <c r="I113" s="23" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B114" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C114" t="s">
+        <v>288</v>
+      </c>
+      <c r="D114" t="s">
+        <v>327</v>
+      </c>
+      <c r="E114" t="s">
+        <v>327</v>
+      </c>
+      <c r="F114" t="s">
+        <v>327</v>
+      </c>
+      <c r="G114" t="s">
+        <v>327</v>
+      </c>
+      <c r="H114" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B115" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C115" t="s">
+        <v>288</v>
+      </c>
+      <c r="D115" t="s">
+        <v>327</v>
+      </c>
+      <c r="E115" t="s">
+        <v>327</v>
+      </c>
+      <c r="F115" t="s">
+        <v>327</v>
+      </c>
+      <c r="G115" t="s">
+        <v>327</v>
+      </c>
+      <c r="H115" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B110" t="s">
+      <c r="B116" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C116" t="s">
         <v>288</v>
       </c>
-      <c r="C110" t="s">
-        <v>328</v>
-      </c>
-      <c r="D110" t="s">
-        <v>328</v>
-      </c>
-      <c r="E110" t="s">
-        <v>328</v>
-      </c>
-      <c r="F110" t="s">
-        <v>328</v>
-      </c>
-      <c r="G110" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B111" t="s">
+      <c r="D116" t="s">
+        <v>325</v>
+      </c>
+      <c r="E116" t="s">
+        <v>325</v>
+      </c>
+      <c r="F116" t="s">
+        <v>325</v>
+      </c>
+      <c r="G116" t="s">
+        <v>325</v>
+      </c>
+      <c r="H116" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B117" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C117" t="s">
         <v>288</v>
       </c>
-      <c r="C111" t="s">
-        <v>328</v>
-      </c>
-      <c r="D111" t="s">
-        <v>328</v>
-      </c>
-      <c r="E111" t="s">
-        <v>328</v>
-      </c>
-      <c r="F111" t="s">
-        <v>328</v>
-      </c>
-      <c r="G111" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B112" t="s">
-        <v>288</v>
-      </c>
-      <c r="C112" t="s">
-        <v>328</v>
-      </c>
-      <c r="D112" t="s">
-        <v>328</v>
-      </c>
-      <c r="E112" t="s">
-        <v>328</v>
-      </c>
-      <c r="F112" t="s">
-        <v>328</v>
-      </c>
-      <c r="G112" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B113" t="s">
-        <v>288</v>
-      </c>
-      <c r="C113" t="s">
-        <v>328</v>
-      </c>
-      <c r="D113" t="s">
-        <v>328</v>
-      </c>
-      <c r="E113" t="s">
-        <v>328</v>
-      </c>
-      <c r="F113" t="s">
-        <v>328</v>
-      </c>
-      <c r="G113" t="s">
-        <v>328</v>
+      <c r="D117" t="s">
+        <v>327</v>
+      </c>
+      <c r="E117" t="s">
+        <v>327</v>
+      </c>
+      <c r="F117" t="s">
+        <v>327</v>
+      </c>
+      <c r="G117" t="s">
+        <v>327</v>
+      </c>
+      <c r="H117" t="s">
+        <v>327</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+  <conditionalFormatting sqref="A1:XFD14 A15:I35 K15:XFD1048576 A36:J1048576">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"Stolen"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>"Redo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>"Partial"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>"Check"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
       <formula>"Needs"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
       <formula>"XX"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
